--- a/data/hisobot.xlsx
+++ b/data/hisobot.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,10 +511,8 @@
           <t>Ali Valiyev</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+998941234567</t>
-        </is>
+      <c r="E2" t="n">
+        <v>998941234567</v>
       </c>
       <c r="F2" t="n">
         <v>27</v>
@@ -519,16 +520,56 @@
       <c r="G2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45438</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>45440</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6619406508</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>firdavs_iiv</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Andijon viloyati</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>45440</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>45442</v>
       </c>
     </row>
   </sheetData>

--- a/data/hisobot.xlsx
+++ b/data/hisobot.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,68 +505,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ali Valiyev</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>998941234567</v>
+          <t>ss s</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I2" s="2" t="n">
-        <v>45438</v>
+        <v>45441</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>45440</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>6619406508</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>firdavs_iiv</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Andijon viloyati</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>A A</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>45440</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>45442</v>
+        <v>45443</v>
       </c>
     </row>
   </sheetData>
